--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3584.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3584.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9077981394519343</v>
+        <v>3.257751226425171</v>
       </c>
       <c r="B1">
-        <v>1.357975349353973</v>
+        <v>4.961606502532959</v>
       </c>
       <c r="C1">
-        <v>2.912434773182822</v>
+        <v>2.104001998901367</v>
       </c>
       <c r="D1">
-        <v>4.875234901856358</v>
+        <v>1.513599157333374</v>
       </c>
       <c r="E1">
-        <v>1.639153226133963</v>
+        <v>1.301970720291138</v>
       </c>
     </row>
   </sheetData>
